--- a/BOM/RpiPico_Agriboard.xlsx
+++ b/BOM/RpiPico_Agriboard.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10" conformance="strict">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+<workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2" conformance="strict">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr dateCompatibility="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\kicad6\KICAD 6.0.0\contractual_projects\Rpi_pico_AgriBoard\rpi_pico_agriboard\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4D918D7D-9ABA-4E13-B74C-D447338FAC0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{9E47C8B2-81C9-49FF-9D07-F6E5C09A07BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34875" yWindow="3540" windowWidth="17280" windowHeight="11385"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RpiPico_Agriboard" sheetId="1" r:id="rId1"/>
@@ -795,7 +795,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -940,7 +940,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1123,6 +1123,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1288,10 +1300,12 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1647,11 +1661,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F79"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="A71" sqref="A71:F71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3002,43 +3016,43 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A68" t="s">
+    <row r="68" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B68" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="C68" t="s">
+      <c r="C68" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="D68" t="s">
+      <c r="D68" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="E68" t="s">
-        <v>254</v>
-      </c>
-      <c r="F68">
+      <c r="E68" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="F68" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A69" t="s">
+      <c r="A69" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B69" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="C69" t="s">
+      <c r="C69" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="D69" t="s">
+      <c r="D69" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="E69" t="s">
-        <v>254</v>
-      </c>
-      <c r="F69">
+      <c r="E69" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="F69" s="4">
         <v>1</v>
       </c>
     </row>
@@ -3063,22 +3077,22 @@
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A71" t="s">
+      <c r="A71" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B71" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="C71" t="s">
+      <c r="C71" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="D71" t="s">
+      <c r="D71" s="4" t="s">
         <v>248</v>
       </c>
-      <c r="E71" t="s">
-        <v>254</v>
-      </c>
-      <c r="F71">
+      <c r="E71" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="F71" s="4">
         <v>1</v>
       </c>
     </row>
@@ -3244,9 +3258,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D41" r:id="rId1" display="https://www.lcsc.com/product-detail/Power-Inductors_TDK-SPM10065VT-470M-D_C360726.html"/>
-    <hyperlink ref="D48" r:id="rId2" display="https://www.lcsc.com/product-detail/span-style-background-color-ff0-Chip-span-span-style-background-color-ff0-Resistor-span-span-style-background-color-ff0-Surface-span-span-style-background-color-ff0-Mount-span_YAGEO-RC0402FR-071KL_C106235.html"/>
-    <hyperlink ref="D53" r:id="rId3" display="https://www.lcsc.com/product-detail/span-style-background-color-ff0-Chip-span-span-style-background-color-ff0-Resistor-span-span-style-background-color-ff0-Surface-span-span-style-background-color-ff0-Mount-span_YAGEO-RC0402FR-071KL_C106235.html"/>
+    <hyperlink ref="D41" r:id="rId1" display="https://www.lcsc.com/product-detail/Power-Inductors_TDK-SPM10065VT-470M-D_C360726.html" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="D48" r:id="rId2" display="https://www.lcsc.com/product-detail/span-style-background-color-ff0-Chip-span-span-style-background-color-ff0-Resistor-span-span-style-background-color-ff0-Surface-span-span-style-background-color-ff0-Mount-span_YAGEO-RC0402FR-071KL_C106235.html" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="D53" r:id="rId3" display="https://www.lcsc.com/product-detail/span-style-background-color-ff0-Chip-span-span-style-background-color-ff0-Resistor-span-span-style-background-color-ff0-Surface-span-span-style-background-color-ff0-Mount-span_YAGEO-RC0402FR-071KL_C106235.html" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
